--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H2">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>36.8780198810074</v>
+        <v>0.1556706666666667</v>
       </c>
       <c r="N2">
-        <v>36.8780198810074</v>
+        <v>0.467012</v>
       </c>
       <c r="O2">
-        <v>0.3710279085721709</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="P2">
-        <v>0.3710279085721709</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="Q2">
-        <v>199.3856877543681</v>
+        <v>2.364478590696445</v>
       </c>
       <c r="R2">
-        <v>199.3856877543681</v>
+        <v>21.280307316268</v>
       </c>
       <c r="S2">
-        <v>0.002317094548928816</v>
+        <v>2.010947896502065E-05</v>
       </c>
       <c r="T2">
-        <v>0.002317094548928816</v>
+        <v>2.010947896502065E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H3">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.8618500951123</v>
+        <v>37.12743</v>
       </c>
       <c r="N3">
-        <v>16.8618500951123</v>
+        <v>111.38229</v>
       </c>
       <c r="O3">
-        <v>0.1696462281769364</v>
+        <v>0.3614167567469731</v>
       </c>
       <c r="P3">
-        <v>0.1696462281769364</v>
+        <v>0.3614167567469732</v>
       </c>
       <c r="Q3">
-        <v>91.16572931174369</v>
+        <v>563.9277793455899</v>
       </c>
       <c r="R3">
-        <v>91.16572931174369</v>
+        <v>5075.35001411031</v>
       </c>
       <c r="S3">
-        <v>0.001059452244624481</v>
+        <v>0.004796107632846329</v>
       </c>
       <c r="T3">
-        <v>0.001059452244624481</v>
+        <v>0.004796107632846329</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H4">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I4">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J4">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.149612862403</v>
+        <v>17.74257933333334</v>
       </c>
       <c r="N4">
-        <v>17.149612862403</v>
+        <v>53.227738</v>
       </c>
       <c r="O4">
-        <v>0.1725413949472053</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="P4">
-        <v>0.1725413949472053</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="Q4">
-        <v>92.72155517906218</v>
+        <v>269.4916767282202</v>
       </c>
       <c r="R4">
-        <v>92.72155517906218</v>
+        <v>2425.425090553982</v>
       </c>
       <c r="S4">
-        <v>0.001077532758210227</v>
+        <v>0.002291979815650627</v>
       </c>
       <c r="T4">
-        <v>0.001077532758210227</v>
+        <v>0.002291979815650626</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H5">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I5">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J5">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.82967471352271</v>
+        <v>18.87700766666667</v>
       </c>
       <c r="N5">
-        <v>4.82967471352271</v>
+        <v>56.631023</v>
       </c>
       <c r="O5">
-        <v>0.04859111508221464</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="P5">
-        <v>0.04859111508221464</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="Q5">
-        <v>26.11224836617505</v>
+        <v>286.7224856165108</v>
       </c>
       <c r="R5">
-        <v>26.11224836617505</v>
+        <v>2580.502370548597</v>
       </c>
       <c r="S5">
-        <v>0.0003034548218128763</v>
+        <v>0.002438524846869247</v>
       </c>
       <c r="T5">
-        <v>0.0003034548218128763</v>
+        <v>0.002438524846869247</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H6">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I6">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J6">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.6750363319816</v>
+        <v>4.878365</v>
       </c>
       <c r="N6">
-        <v>23.6750363319816</v>
+        <v>14.635095</v>
       </c>
       <c r="O6">
-        <v>0.2381933532214729</v>
+        <v>0.04748841642225027</v>
       </c>
       <c r="P6">
-        <v>0.2381933532214729</v>
+        <v>0.04748841642225028</v>
       </c>
       <c r="Q6">
-        <v>128.0020840840453</v>
+        <v>74.09738679157833</v>
       </c>
       <c r="R6">
-        <v>128.0020840840453</v>
+        <v>666.8764811242049</v>
       </c>
       <c r="S6">
-        <v>0.00148753370727419</v>
+        <v>0.0006301853807901701</v>
       </c>
       <c r="T6">
-        <v>0.00148753370727419</v>
+        <v>0.00063018538079017</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>93.47101091744349</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H7">
-        <v>93.47101091744349</v>
+        <v>45.566939</v>
       </c>
       <c r="I7">
-        <v>0.1079661786816397</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J7">
-        <v>0.1079661786816397</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.8780198810074</v>
+        <v>23.94642</v>
       </c>
       <c r="N7">
-        <v>36.8780198810074</v>
+        <v>71.83926</v>
       </c>
       <c r="O7">
-        <v>0.3710279085721709</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="P7">
-        <v>0.3710279085721709</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="Q7">
-        <v>3447.025798911341</v>
+        <v>363.72168646946</v>
       </c>
       <c r="R7">
-        <v>3447.025798911341</v>
+        <v>3273.49517822514</v>
       </c>
       <c r="S7">
-        <v>0.04005846547277806</v>
+        <v>0.00309338965129943</v>
       </c>
       <c r="T7">
-        <v>0.04005846547277806</v>
+        <v>0.00309338965129943</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H8">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J8">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>16.8618500951123</v>
+        <v>0.1556706666666667</v>
       </c>
       <c r="N8">
-        <v>16.8618500951123</v>
+        <v>0.467012</v>
       </c>
       <c r="O8">
-        <v>0.1696462281769364</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="P8">
-        <v>0.1696462281769364</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="Q8">
-        <v>1576.094174328537</v>
+        <v>14.86703799146222</v>
       </c>
       <c r="R8">
-        <v>1576.094174328537</v>
+        <v>133.80334192316</v>
       </c>
       <c r="S8">
-        <v>0.01831605498401732</v>
+        <v>0.0001264415710668004</v>
       </c>
       <c r="T8">
-        <v>0.01831605498401732</v>
+        <v>0.0001264415710668004</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H9">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J9">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.149612862403</v>
+        <v>37.12743</v>
       </c>
       <c r="N9">
-        <v>17.149612862403</v>
+        <v>111.38229</v>
       </c>
       <c r="O9">
-        <v>0.1725413949472053</v>
+        <v>0.3614167567469731</v>
       </c>
       <c r="P9">
-        <v>0.1725413949472053</v>
+        <v>0.3614167567469732</v>
       </c>
       <c r="Q9">
-        <v>1602.9916510916</v>
+        <v>3545.7862688883</v>
       </c>
       <c r="R9">
-        <v>1602.9916510916</v>
+        <v>31912.0764199947</v>
       </c>
       <c r="S9">
-        <v>0.01862863507684933</v>
+        <v>0.03015629520572912</v>
       </c>
       <c r="T9">
-        <v>0.01862863507684933</v>
+        <v>0.03015629520572912</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H10">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J10">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.82967471352271</v>
+        <v>17.74257933333334</v>
       </c>
       <c r="N10">
-        <v>4.82967471352271</v>
+        <v>53.227738</v>
       </c>
       <c r="O10">
-        <v>0.04859111508221464</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="P10">
-        <v>0.04859111508221464</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="Q10">
-        <v>451.434577875382</v>
+        <v>1694.472097174371</v>
       </c>
       <c r="R10">
-        <v>451.434577875382</v>
+        <v>15250.24887456934</v>
       </c>
       <c r="S10">
-        <v>0.005246197013306501</v>
+        <v>0.01441119032712656</v>
       </c>
       <c r="T10">
-        <v>0.005246197013306501</v>
+        <v>0.01441119032712656</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H11">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J11">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.6750363319816</v>
+        <v>18.87700766666667</v>
       </c>
       <c r="N11">
-        <v>23.6750363319816</v>
+        <v>56.631023</v>
       </c>
       <c r="O11">
-        <v>0.2381933532214729</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="P11">
-        <v>0.2381933532214729</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="Q11">
-        <v>2212.929579457524</v>
+        <v>1802.813568894099</v>
       </c>
       <c r="R11">
-        <v>2212.929579457524</v>
+        <v>16225.32212004689</v>
       </c>
       <c r="S11">
-        <v>0.02571682613468845</v>
+        <v>0.0153326156913315</v>
       </c>
       <c r="T11">
-        <v>0.02571682613468845</v>
+        <v>0.0153326156913315</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>196.805416198006</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H12">
-        <v>196.805416198006</v>
+        <v>286.50943</v>
       </c>
       <c r="I12">
-        <v>0.2273253335145328</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J12">
-        <v>0.2273253335145328</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>36.8780198810074</v>
+        <v>4.878365</v>
       </c>
       <c r="N12">
-        <v>36.8780198810074</v>
+        <v>14.635095</v>
       </c>
       <c r="O12">
-        <v>0.3710279085721709</v>
+        <v>0.04748841642225027</v>
       </c>
       <c r="P12">
-        <v>0.3710279085721709</v>
+        <v>0.04748841642225028</v>
       </c>
       <c r="Q12">
-        <v>7257.79405124</v>
+        <v>465.8991918273167</v>
       </c>
       <c r="R12">
-        <v>7257.79405124</v>
+        <v>4193.09272644585</v>
       </c>
       <c r="S12">
-        <v>0.08434404305936832</v>
+        <v>0.003962391554203906</v>
       </c>
       <c r="T12">
-        <v>0.08434404305936832</v>
+        <v>0.003962391554203906</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>196.805416198006</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H13">
-        <v>196.805416198006</v>
+        <v>286.50943</v>
       </c>
       <c r="I13">
-        <v>0.2273253335145328</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J13">
-        <v>0.2273253335145328</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.8618500951123</v>
+        <v>23.94642</v>
       </c>
       <c r="N13">
-        <v>16.8618500951123</v>
+        <v>71.83926</v>
       </c>
       <c r="O13">
-        <v>0.1696462281769364</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="P13">
-        <v>0.1696462281769364</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="Q13">
-        <v>3318.503425836963</v>
+        <v>2286.9583815802</v>
       </c>
       <c r="R13">
-        <v>3318.503425836963</v>
+        <v>20582.6254342218</v>
       </c>
       <c r="S13">
-        <v>0.03856488539980459</v>
+        <v>0.0194501830759731</v>
       </c>
       <c r="T13">
-        <v>0.03856488539980459</v>
+        <v>0.0194501830759731</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H14">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I14">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J14">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>17.149612862403</v>
+        <v>0.1556706666666667</v>
       </c>
       <c r="N14">
-        <v>17.149612862403</v>
+        <v>0.467012</v>
       </c>
       <c r="O14">
-        <v>0.1725413949472053</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="P14">
-        <v>0.1725413949472053</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="Q14">
-        <v>3375.136697019899</v>
+        <v>62.59382249613422</v>
       </c>
       <c r="R14">
-        <v>3375.136697019899</v>
+        <v>563.344402465208</v>
       </c>
       <c r="S14">
-        <v>0.03922303015143616</v>
+        <v>0.0005323495682215062</v>
       </c>
       <c r="T14">
-        <v>0.03922303015143616</v>
+        <v>0.0005323495682215061</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H15">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I15">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J15">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.82967471352271</v>
+        <v>37.12743</v>
       </c>
       <c r="N15">
-        <v>4.82967471352271</v>
+        <v>111.38229</v>
       </c>
       <c r="O15">
-        <v>0.04859111508221464</v>
+        <v>0.3614167567469731</v>
       </c>
       <c r="P15">
-        <v>0.04859111508221464</v>
+        <v>0.3614167567469732</v>
       </c>
       <c r="Q15">
-        <v>950.5061420958223</v>
+        <v>14928.61701513654</v>
       </c>
       <c r="R15">
-        <v>950.5061420958223</v>
+        <v>134357.5531362288</v>
       </c>
       <c r="S15">
-        <v>0.01104599144190749</v>
+        <v>0.12696528994763</v>
       </c>
       <c r="T15">
-        <v>0.01104599144190749</v>
+        <v>0.12696528994763</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H16">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I16">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J16">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.6750363319816</v>
+        <v>17.74257933333334</v>
       </c>
       <c r="N16">
-        <v>23.6750363319816</v>
+        <v>53.227738</v>
       </c>
       <c r="O16">
-        <v>0.2381933532214729</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="P16">
-        <v>0.2381933532214729</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="Q16">
-        <v>4659.375378818552</v>
+        <v>7134.136990575699</v>
       </c>
       <c r="R16">
-        <v>4659.375378818552</v>
+        <v>64207.23291518129</v>
       </c>
       <c r="S16">
-        <v>0.05414738346201622</v>
+        <v>0.06067459367576735</v>
       </c>
       <c r="T16">
-        <v>0.05414738346201622</v>
+        <v>0.06067459367576733</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>168.07592746158</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H17">
-        <v>168.07592746158</v>
+        <v>1206.273934</v>
       </c>
       <c r="I17">
-        <v>0.1941405729785764</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J17">
-        <v>0.1941405729785764</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>36.8780198810074</v>
+        <v>18.87700766666667</v>
       </c>
       <c r="N17">
-        <v>36.8780198810074</v>
+        <v>56.631023</v>
       </c>
       <c r="O17">
-        <v>0.3710279085721709</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="P17">
-        <v>0.3710279085721709</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="Q17">
-        <v>6198.307394446904</v>
+        <v>7590.280766739386</v>
       </c>
       <c r="R17">
-        <v>6198.307394446904</v>
+        <v>68312.52690065447</v>
       </c>
       <c r="S17">
-        <v>0.07203157076124413</v>
+        <v>0.06455401711731644</v>
       </c>
       <c r="T17">
-        <v>0.07203157076124413</v>
+        <v>0.06455401711731643</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>168.07592746158</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H18">
-        <v>168.07592746158</v>
+        <v>1206.273934</v>
       </c>
       <c r="I18">
-        <v>0.1941405729785764</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J18">
-        <v>0.1941405729785764</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.8618500951123</v>
+        <v>4.878365</v>
       </c>
       <c r="N18">
-        <v>16.8618500951123</v>
+        <v>14.635095</v>
       </c>
       <c r="O18">
-        <v>0.1696462281769364</v>
+        <v>0.04748841642225027</v>
       </c>
       <c r="P18">
-        <v>0.1696462281769364</v>
+        <v>0.04748841642225028</v>
       </c>
       <c r="Q18">
-        <v>2834.07109345413</v>
+        <v>1961.548180012636</v>
       </c>
       <c r="R18">
-        <v>2834.07109345413</v>
+        <v>17653.93362011373</v>
       </c>
       <c r="S18">
-        <v>0.03293521594192474</v>
+        <v>0.01668262593708668</v>
       </c>
       <c r="T18">
-        <v>0.03293521594192474</v>
+        <v>0.01668262593708668</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>168.07592746158</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H19">
-        <v>168.07592746158</v>
+        <v>1206.273934</v>
       </c>
       <c r="I19">
-        <v>0.1941405729785764</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J19">
-        <v>0.1941405729785764</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.149612862403</v>
+        <v>23.94642</v>
       </c>
       <c r="N19">
-        <v>17.149612862403</v>
+        <v>71.83926</v>
       </c>
       <c r="O19">
-        <v>0.1725413949472053</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="P19">
-        <v>0.1725413949472053</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="Q19">
-        <v>2882.437087455426</v>
+        <v>9628.647419538758</v>
       </c>
       <c r="R19">
-        <v>2882.437087455426</v>
+        <v>86657.82677584882</v>
       </c>
       <c r="S19">
-        <v>0.03349728527757329</v>
+        <v>0.08188997079807911</v>
       </c>
       <c r="T19">
-        <v>0.03349728527757329</v>
+        <v>0.08188997079807908</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H20">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I20">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J20">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>4.82967471352271</v>
+        <v>0.1556706666666667</v>
       </c>
       <c r="N20">
-        <v>4.82967471352271</v>
+        <v>0.467012</v>
       </c>
       <c r="O20">
-        <v>0.04859111508221464</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="P20">
-        <v>0.04859111508221464</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="Q20">
-        <v>811.7520568130701</v>
+        <v>29.92181776466711</v>
       </c>
       <c r="R20">
-        <v>811.7520568130701</v>
+        <v>269.296359882004</v>
       </c>
       <c r="S20">
-        <v>0.009433506923729096</v>
+        <v>0.0002544798533179036</v>
       </c>
       <c r="T20">
-        <v>0.009433506923729096</v>
+        <v>0.0002544798533179036</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H21">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I21">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J21">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.6750363319816</v>
+        <v>37.12743</v>
       </c>
       <c r="N21">
-        <v>23.6750363319816</v>
+        <v>111.38229</v>
       </c>
       <c r="O21">
-        <v>0.2381933532214729</v>
+        <v>0.3614167567469731</v>
       </c>
       <c r="P21">
-        <v>0.2381933532214729</v>
+        <v>0.3614167567469732</v>
       </c>
       <c r="Q21">
-        <v>3979.20368918441</v>
+        <v>7136.34892377777</v>
       </c>
       <c r="R21">
-        <v>3979.20368918441</v>
+        <v>64227.14031399993</v>
       </c>
       <c r="S21">
-        <v>0.04624299407410518</v>
+        <v>0.0606934057827469</v>
       </c>
       <c r="T21">
-        <v>0.04624299407410518</v>
+        <v>0.06069340578274691</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>365.972334762252</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H22">
-        <v>365.972334762252</v>
+        <v>576.636917</v>
       </c>
       <c r="I22">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J22">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>36.8780198810074</v>
+        <v>17.74257933333334</v>
       </c>
       <c r="N22">
-        <v>36.8780198810074</v>
+        <v>53.227738</v>
       </c>
       <c r="O22">
-        <v>0.3710279085721709</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="P22">
-        <v>0.3710279085721709</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="Q22">
-        <v>13496.33503726102</v>
+        <v>3410.34208213375</v>
       </c>
       <c r="R22">
-        <v>13496.33503726102</v>
+        <v>30693.07873920375</v>
       </c>
       <c r="S22">
-        <v>0.1568431751424414</v>
+        <v>0.02900436596636447</v>
       </c>
       <c r="T22">
-        <v>0.1568431751424414</v>
+        <v>0.02900436596636447</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>365.972334762252</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H23">
-        <v>365.972334762252</v>
+        <v>576.636917</v>
       </c>
       <c r="I23">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J23">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.8618500951123</v>
+        <v>18.87700766666667</v>
       </c>
       <c r="N23">
-        <v>16.8618500951123</v>
+        <v>56.631023</v>
       </c>
       <c r="O23">
-        <v>0.1696462281769364</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="P23">
-        <v>0.1696462281769364</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="Q23">
-        <v>6170.970647719349</v>
+        <v>3628.393167697344</v>
       </c>
       <c r="R23">
-        <v>6170.970647719349</v>
+        <v>32655.53850927609</v>
       </c>
       <c r="S23">
-        <v>0.07171388583841305</v>
+        <v>0.03085885250546629</v>
       </c>
       <c r="T23">
-        <v>0.07171388583841305</v>
+        <v>0.03085885250546629</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>365.972334762252</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H24">
-        <v>365.972334762252</v>
+        <v>576.636917</v>
       </c>
       <c r="I24">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J24">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>17.149612862403</v>
+        <v>4.878365</v>
       </c>
       <c r="N24">
-        <v>17.149612862403</v>
+        <v>14.635095</v>
       </c>
       <c r="O24">
-        <v>0.1725413949472053</v>
+        <v>0.04748841642225027</v>
       </c>
       <c r="P24">
-        <v>0.1725413949472053</v>
+        <v>0.04748841642225028</v>
       </c>
       <c r="Q24">
-        <v>6276.283859522373</v>
+        <v>937.6817845335684</v>
       </c>
       <c r="R24">
-        <v>6276.283859522373</v>
+        <v>8439.136060802115</v>
       </c>
       <c r="S24">
-        <v>0.07293774835205342</v>
+        <v>0.007974820409097805</v>
       </c>
       <c r="T24">
-        <v>0.07293774835205342</v>
+        <v>0.007974820409097805</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>365.972334762252</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H25">
-        <v>365.972334762252</v>
+        <v>576.636917</v>
       </c>
       <c r="I25">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J25">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.82967471352271</v>
+        <v>23.94642</v>
       </c>
       <c r="N25">
-        <v>4.82967471352271</v>
+        <v>71.83926</v>
       </c>
       <c r="O25">
-        <v>0.04859111508221464</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="P25">
-        <v>0.04859111508221464</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="Q25">
-        <v>1767.527331050117</v>
+        <v>4602.79660066238</v>
       </c>
       <c r="R25">
-        <v>1767.527331050117</v>
+        <v>41425.16940596142</v>
       </c>
       <c r="S25">
-        <v>0.0205407318347964</v>
+        <v>0.03914598414444755</v>
       </c>
       <c r="T25">
-        <v>0.0205407318347964</v>
+        <v>0.03914598414444755</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H26">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I26">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J26">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>23.6750363319816</v>
+        <v>0.1556706666666667</v>
       </c>
       <c r="N26">
-        <v>23.6750363319816</v>
+        <v>0.467012</v>
       </c>
       <c r="O26">
-        <v>0.2381933532214729</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="P26">
-        <v>0.2381933532214729</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="Q26">
-        <v>8664.408321996449</v>
+        <v>62.64873854099467</v>
       </c>
       <c r="R26">
-        <v>8664.408321996449</v>
+        <v>563.838646868952</v>
       </c>
       <c r="S26">
-        <v>0.1006905436328221</v>
+        <v>0.0005328166196269655</v>
       </c>
       <c r="T26">
-        <v>0.1006905436328221</v>
+        <v>0.0005328166196269655</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2087,57 +2087,57 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>36.012123771195</v>
+        <v>402.444082</v>
       </c>
       <c r="H27">
-        <v>36.012123771195</v>
+        <v>1207.332246</v>
       </c>
       <c r="I27">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J27">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>36.8780198810074</v>
+        <v>37.12743</v>
       </c>
       <c r="N27">
-        <v>36.8780198810074</v>
+        <v>111.38229</v>
       </c>
       <c r="O27">
-        <v>0.3710279085721709</v>
+        <v>0.3614167567469731</v>
       </c>
       <c r="P27">
-        <v>0.3710279085721709</v>
+        <v>0.3614167567469732</v>
       </c>
       <c r="Q27">
-        <v>1328.055816391428</v>
+        <v>14941.71448336926</v>
       </c>
       <c r="R27">
-        <v>1328.055816391428</v>
+        <v>134475.4303503233</v>
       </c>
       <c r="S27">
-        <v>0.01543355958741011</v>
+        <v>0.1270766816358259</v>
       </c>
       <c r="T27">
-        <v>0.01543355958741011</v>
+        <v>0.1270766816358259</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>36.012123771195</v>
+        <v>402.444082</v>
       </c>
       <c r="H28">
-        <v>36.012123771195</v>
+        <v>1207.332246</v>
       </c>
       <c r="I28">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J28">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>16.8618500951123</v>
+        <v>17.74257933333334</v>
       </c>
       <c r="N28">
-        <v>16.8618500951123</v>
+        <v>53.227738</v>
       </c>
       <c r="O28">
-        <v>0.1696462281769364</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="P28">
-        <v>0.1696462281769364</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="Q28">
-        <v>607.2310326365202</v>
+        <v>7140.396052115506</v>
       </c>
       <c r="R28">
-        <v>607.2310326365202</v>
+        <v>64263.56446903955</v>
       </c>
       <c r="S28">
-        <v>0.007056733768152184</v>
+        <v>0.06072782590500839</v>
       </c>
       <c r="T28">
-        <v>0.007056733768152184</v>
+        <v>0.06072782590500838</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>36.012123771195</v>
+        <v>402.444082</v>
       </c>
       <c r="H29">
-        <v>36.012123771195</v>
+        <v>1207.332246</v>
       </c>
       <c r="I29">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J29">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>17.149612862403</v>
+        <v>18.87700766666667</v>
       </c>
       <c r="N29">
-        <v>17.149612862403</v>
+        <v>56.631023</v>
       </c>
       <c r="O29">
-        <v>0.1725413949472053</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="P29">
-        <v>0.1725413949472053</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="Q29">
-        <v>617.5939810289346</v>
+        <v>7596.940021318629</v>
       </c>
       <c r="R29">
-        <v>617.5939810289346</v>
+        <v>68372.46019186765</v>
       </c>
       <c r="S29">
-        <v>0.007177163331082876</v>
+        <v>0.06461065291871929</v>
       </c>
       <c r="T29">
-        <v>0.007177163331082876</v>
+        <v>0.06461065291871929</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>36.012123771195</v>
+        <v>402.444082</v>
       </c>
       <c r="H30">
-        <v>36.012123771195</v>
+        <v>1207.332246</v>
       </c>
       <c r="I30">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J30">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.82967471352271</v>
+        <v>4.878365</v>
       </c>
       <c r="N30">
-        <v>4.82967471352271</v>
+        <v>14.635095</v>
       </c>
       <c r="O30">
-        <v>0.04859111508221464</v>
+        <v>0.04748841642225027</v>
       </c>
       <c r="P30">
-        <v>0.04859111508221464</v>
+        <v>0.04748841642225028</v>
       </c>
       <c r="Q30">
-        <v>173.9268435579906</v>
+        <v>1963.26912408593</v>
       </c>
       <c r="R30">
-        <v>173.9268435579906</v>
+        <v>17669.42211677337</v>
       </c>
       <c r="S30">
-        <v>0.002021233046662277</v>
+        <v>0.01669726226696424</v>
       </c>
       <c r="T30">
-        <v>0.002021233046662277</v>
+        <v>0.01669726226696424</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>36.012123771195</v>
+        <v>402.444082</v>
       </c>
       <c r="H31">
-        <v>36.012123771195</v>
+        <v>1207.332246</v>
       </c>
       <c r="I31">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J31">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>23.6750363319816</v>
+        <v>23.94642</v>
       </c>
       <c r="N31">
-        <v>23.6750363319816</v>
+        <v>71.83926</v>
       </c>
       <c r="O31">
-        <v>0.2381933532214729</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="P31">
-        <v>0.2381933532214729</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="Q31">
-        <v>852.5883386748599</v>
+        <v>9637.095014086439</v>
       </c>
       <c r="R31">
-        <v>852.5883386748599</v>
+        <v>86733.85512677795</v>
       </c>
       <c r="S31">
-        <v>0.009908072210566745</v>
+        <v>0.08196181611971999</v>
       </c>
       <c r="T31">
-        <v>0.009908072210566745</v>
+        <v>0.08196181611971998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H32">
+        <v>111.434855</v>
+      </c>
+      <c r="I32">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J32">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.1556706666666667</v>
+      </c>
+      <c r="N32">
+        <v>0.467012</v>
+      </c>
+      <c r="O32">
+        <v>0.00151537522169743</v>
+      </c>
+      <c r="P32">
+        <v>0.00151537522169743</v>
+      </c>
+      <c r="Q32">
+        <v>5.782379389251111</v>
+      </c>
+      <c r="R32">
+        <v>52.04141450326</v>
+      </c>
+      <c r="S32">
+        <v>4.917813049923381E-05</v>
+      </c>
+      <c r="T32">
+        <v>4.917813049923381E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H33">
+        <v>111.434855</v>
+      </c>
+      <c r="I33">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J33">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>37.12743</v>
+      </c>
+      <c r="N33">
+        <v>111.38229</v>
+      </c>
+      <c r="O33">
+        <v>0.3614167567469731</v>
+      </c>
+      <c r="P33">
+        <v>0.3614167567469732</v>
+      </c>
+      <c r="Q33">
+        <v>1379.09659285755</v>
+      </c>
+      <c r="R33">
+        <v>12411.86933571795</v>
+      </c>
+      <c r="S33">
+        <v>0.01172897654219486</v>
+      </c>
+      <c r="T33">
+        <v>0.01172897654219486</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H34">
+        <v>111.434855</v>
+      </c>
+      <c r="I34">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J34">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>17.74257933333334</v>
+      </c>
+      <c r="N34">
+        <v>53.227738</v>
+      </c>
+      <c r="O34">
+        <v>0.1727150378838289</v>
+      </c>
+      <c r="P34">
+        <v>0.1727150378838289</v>
+      </c>
+      <c r="Q34">
+        <v>659.0472517786656</v>
+      </c>
+      <c r="R34">
+        <v>5931.42526600799</v>
+      </c>
+      <c r="S34">
+        <v>0.005605082193911563</v>
+      </c>
+      <c r="T34">
+        <v>0.005605082193911561</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H35">
+        <v>111.434855</v>
+      </c>
+      <c r="I35">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J35">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>18.87700766666667</v>
+      </c>
+      <c r="N35">
+        <v>56.631023</v>
+      </c>
+      <c r="O35">
+        <v>0.1837581240601467</v>
+      </c>
+      <c r="P35">
+        <v>0.1837581240601467</v>
+      </c>
+      <c r="Q35">
+        <v>701.1855373896294</v>
+      </c>
+      <c r="R35">
+        <v>6310.669836506665</v>
+      </c>
+      <c r="S35">
+        <v>0.005963460980443995</v>
+      </c>
+      <c r="T35">
+        <v>0.005963460980443995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H36">
+        <v>111.434855</v>
+      </c>
+      <c r="I36">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J36">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>4.878365</v>
+      </c>
+      <c r="N36">
+        <v>14.635095</v>
+      </c>
+      <c r="O36">
+        <v>0.04748841642225027</v>
+      </c>
+      <c r="P36">
+        <v>0.04748841642225028</v>
+      </c>
+      <c r="Q36">
+        <v>181.2066321373583</v>
+      </c>
+      <c r="R36">
+        <v>1630.859689236225</v>
+      </c>
+      <c r="S36">
+        <v>0.001541130874107484</v>
+      </c>
+      <c r="T36">
+        <v>0.001541130874107484</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H37">
+        <v>111.434855</v>
+      </c>
+      <c r="I37">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J37">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>23.94642</v>
+      </c>
+      <c r="N37">
+        <v>71.83926</v>
+      </c>
+      <c r="O37">
+        <v>0.2331062896651035</v>
+      </c>
+      <c r="P37">
+        <v>0.2331062896651035</v>
+      </c>
+      <c r="Q37">
+        <v>889.4886134896999</v>
+      </c>
+      <c r="R37">
+        <v>8005.3975214073</v>
+      </c>
+      <c r="S37">
+        <v>0.007564945875584326</v>
+      </c>
+      <c r="T37">
+        <v>0.007564945875584324</v>
       </c>
     </row>
   </sheetData>
